--- a/Tesi/Risultati.xlsx
+++ b/Tesi/Risultati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattia\Desktop\Tesi-Magistrale\Tesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7CDE18-A707-4B1F-A8E1-6D9C0AF4EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157358D-DBD5-42A2-822E-E11B3FDB53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,62 +129,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Valutazione basata sui tre soggetti</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -750,62 +695,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Valori medi per ogni configurazione</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2639,7 +2529,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
